--- a/templates/plantilla_destinos.xlsx
+++ b/templates/plantilla_destinos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e105ed6b2d7bee4d/Documents/Transporte/MVP ruteo/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_2B59D2BFD300567437B8241159AA68F74C15E3F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E4D1B76-47CE-406B-9D3F-CAAFCD2709D4}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_56BD29ECD13F59C509246B35532AC1FD799DE38D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE874DBC-3AA7-4C5F-8AC7-9605F031B99F}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="2730" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>destino_id</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>hora_fin</t>
-  </si>
-  <si>
-    <t>prioridad</t>
   </si>
   <si>
     <t>CLI_101</t>
@@ -183,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,14 +195,28 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFFF9E5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -235,23 +246,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,334 +562,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="8.7265625" style="3"/>
-    <col min="7" max="7" width="8.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.7265625" style="7"/>
-    <col min="11" max="11" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>120</v>
+      </c>
+      <c r="G2" s="3">
+        <v>6.25</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-75.569999999999993</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" s="1">
+        <v>85</v>
+      </c>
+      <c r="G3" s="3">
+        <v>6.24</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-75.584999999999994</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1">
+        <v>150</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6.2350000000000003</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-75.575000000000003</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>95</v>
+      </c>
+      <c r="G5" s="3">
+        <v>6.2549999999999999</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-75.564999999999998</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1">
+        <v>200</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-74.05</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1">
+        <v>75</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4.6749999999999998</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-74.064999999999998</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1">
+        <v>180</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6.23</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-75.59</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3">
-        <v>120</v>
-      </c>
-      <c r="G2" s="5">
-        <v>6.25</v>
-      </c>
-      <c r="H2" s="5">
-        <v>-75.569999999999993</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+      <c r="J8" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3">
-        <v>85</v>
-      </c>
-      <c r="G3" s="5">
-        <v>6.24</v>
-      </c>
-      <c r="H3" s="5">
-        <v>-75.584999999999994</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3">
-        <v>150</v>
-      </c>
-      <c r="G4" s="5">
-        <v>6.2350000000000003</v>
-      </c>
-      <c r="H4" s="5">
-        <v>-75.575000000000003</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3">
-        <v>95</v>
-      </c>
-      <c r="G5" s="5">
-        <v>6.2549999999999999</v>
-      </c>
-      <c r="H5" s="5">
-        <v>-75.564999999999998</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3">
-        <v>200</v>
-      </c>
-      <c r="G6" s="5">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="H6" s="5">
-        <v>-74.05</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3">
-        <v>75</v>
-      </c>
-      <c r="G7" s="5">
-        <v>4.6749999999999998</v>
-      </c>
-      <c r="H7" s="5">
-        <v>-74.064999999999998</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3">
-        <v>180</v>
-      </c>
-      <c r="G8" s="5">
-        <v>6.23</v>
-      </c>
-      <c r="H8" s="5">
-        <v>-75.59</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="F9" s="1">
+        <v>110</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-74.045000000000002</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3">
-        <v>110</v>
-      </c>
-      <c r="G9" s="5">
-        <v>4.7</v>
-      </c>
-      <c r="H9" s="5">
-        <v>-74.045000000000002</v>
-      </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
